--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H2">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I2">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J2">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N2">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O2">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P2">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q2">
-        <v>0.3364760729699999</v>
+        <v>0.38933912350575</v>
       </c>
       <c r="R2">
-        <v>1.34590429188</v>
+        <v>1.557356494023</v>
       </c>
       <c r="S2">
-        <v>0.003000806676854745</v>
+        <v>0.008112292710890388</v>
       </c>
       <c r="T2">
-        <v>0.002067234505288416</v>
+        <v>0.005076231801254127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H3">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I3">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J3">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.808021</v>
       </c>
       <c r="O3">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P3">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q3">
-        <v>1.231398857645</v>
+        <v>2.141794738623833</v>
       </c>
       <c r="R3">
-        <v>7.388393145869999</v>
+        <v>12.850768431743</v>
       </c>
       <c r="S3">
-        <v>0.01098202877035444</v>
+        <v>0.04462656023343337</v>
       </c>
       <c r="T3">
-        <v>0.01134816297260212</v>
+        <v>0.04188731329925224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H4">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I4">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J4">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N4">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O4">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P4">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q4">
-        <v>0.01873154292</v>
+        <v>0.008616464880833334</v>
       </c>
       <c r="R4">
-        <v>0.11238925752</v>
+        <v>0.051698789285</v>
       </c>
       <c r="S4">
-        <v>0.0001670541936785468</v>
+        <v>0.000179533165372719</v>
       </c>
       <c r="T4">
-        <v>0.0001726236795370918</v>
+        <v>0.0001685131434337971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H5">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I5">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J5">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N5">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O5">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P5">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q5">
-        <v>6.0983591123175</v>
+        <v>3.20462848858625</v>
       </c>
       <c r="R5">
-        <v>24.39343644927</v>
+        <v>12.818513954345</v>
       </c>
       <c r="S5">
-        <v>0.05438721565123576</v>
+        <v>0.06677182630654886</v>
       </c>
       <c r="T5">
-        <v>0.03746696836819888</v>
+        <v>0.04178217924386482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H6">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I6">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J6">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N6">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O6">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P6">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q6">
-        <v>0.129319825355</v>
+        <v>0.01557015537916667</v>
       </c>
       <c r="R6">
-        <v>0.77591895213</v>
+        <v>0.09342093227500001</v>
       </c>
       <c r="S6">
-        <v>0.001153317654802673</v>
+        <v>0.0003244206666222155</v>
       </c>
       <c r="T6">
-        <v>0.001191768568409751</v>
+        <v>0.0003045072269176664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.128235</v>
+        <v>0.2230415</v>
       </c>
       <c r="H7">
-        <v>0.25647</v>
+        <v>0.446083</v>
       </c>
       <c r="I7">
-        <v>0.06982308780107412</v>
+        <v>0.1204419342543597</v>
       </c>
       <c r="J7">
-        <v>0.05238384591424589</v>
+        <v>0.08961981748281871</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N7">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O7">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P7">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q7">
-        <v>0.01487551647</v>
+        <v>0.020507773759</v>
       </c>
       <c r="R7">
-        <v>0.08925309882</v>
+        <v>0.123046642554</v>
       </c>
       <c r="S7">
-        <v>0.0001326648541479461</v>
+        <v>0.0004273011714921269</v>
       </c>
       <c r="T7">
-        <v>0.0001370878202096345</v>
+        <v>0.0004010727680960499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.228077</v>
       </c>
       <c r="I8">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J8">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N8">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O8">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P8">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q8">
-        <v>1.074117898818</v>
+        <v>0.7145731814895001</v>
       </c>
       <c r="R8">
-        <v>6.444707392907999</v>
+        <v>4.287439088937</v>
       </c>
       <c r="S8">
-        <v>0.009579344332129151</v>
+        <v>0.01488888853346744</v>
       </c>
       <c r="T8">
-        <v>0.0098987138829145</v>
+        <v>0.01397498564569545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.228077</v>
       </c>
       <c r="I9">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J9">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>28.808021</v>
       </c>
       <c r="O9">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P9">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q9">
-        <v>3.930940889512999</v>
+        <v>3.930940889513</v>
       </c>
       <c r="R9">
-        <v>35.37846800561699</v>
+        <v>35.378468005617</v>
       </c>
       <c r="S9">
-        <v>0.03505745167390748</v>
+        <v>0.08190531390166429</v>
       </c>
       <c r="T9">
-        <v>0.05433936888877566</v>
+        <v>0.1153167595595568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.228077</v>
       </c>
       <c r="I10">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J10">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N10">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O10">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P10">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q10">
-        <v>0.059795887848</v>
+        <v>0.015814220435</v>
       </c>
       <c r="R10">
-        <v>0.5381629906319999</v>
+        <v>0.142327983915</v>
       </c>
       <c r="S10">
-        <v>0.0005332798196284654</v>
+        <v>0.0003295060203765257</v>
       </c>
       <c r="T10">
-        <v>0.0008265885697932432</v>
+        <v>0.0004639206507505267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.228077</v>
       </c>
       <c r="I11">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J11">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N11">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O11">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P11">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q11">
-        <v>19.4675259317595</v>
+        <v>5.8816117783425</v>
       </c>
       <c r="R11">
-        <v>116.805155590557</v>
+        <v>35.289670670055</v>
       </c>
       <c r="S11">
-        <v>0.1736179374724079</v>
+        <v>0.1225496064410549</v>
       </c>
       <c r="T11">
-        <v>0.1794062545822614</v>
+        <v>0.115027323030171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.228077</v>
       </c>
       <c r="I12">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J12">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N12">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O12">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P12">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q12">
-        <v>0.412822040687</v>
+        <v>0.028576669525</v>
       </c>
       <c r="R12">
-        <v>3.715398366182999</v>
+        <v>0.257190025725</v>
       </c>
       <c r="S12">
-        <v>0.00368168566968743</v>
+        <v>0.0005954251548155995</v>
       </c>
       <c r="T12">
-        <v>0.00570664626734878</v>
+        <v>0.0008383155639452008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.228077</v>
       </c>
       <c r="I13">
-        <v>0.2228931991980341</v>
+        <v>0.221052986840702</v>
       </c>
       <c r="J13">
-        <v>0.2508340013991085</v>
+        <v>0.2467254672221258</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N13">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O13">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P13">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q13">
-        <v>0.047486462718</v>
+        <v>0.03763892261399999</v>
       </c>
       <c r="R13">
-        <v>0.427378164462</v>
+        <v>0.338750303526</v>
       </c>
       <c r="S13">
-        <v>0.0004235002302737091</v>
+        <v>0.0007842467893232676</v>
       </c>
       <c r="T13">
-        <v>0.0006564292080149229</v>
+        <v>0.001104162772006763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H14">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I14">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J14">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N14">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O14">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P14">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q14">
-        <v>0.5731913918999999</v>
+        <v>0.485676808542</v>
       </c>
       <c r="R14">
-        <v>3.4391483514</v>
+        <v>2.914060851252</v>
       </c>
       <c r="S14">
-        <v>0.005111913428930628</v>
+        <v>0.01011959034146638</v>
       </c>
       <c r="T14">
-        <v>0.005282341533281722</v>
+        <v>0.009498434315256151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H15">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I15">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J15">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.808021</v>
       </c>
       <c r="O15">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P15">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q15">
-        <v>2.097704062483333</v>
+        <v>2.671758296059111</v>
       </c>
       <c r="R15">
-        <v>18.87933656235</v>
+        <v>24.045824664532</v>
       </c>
       <c r="S15">
-        <v>0.01870802967118126</v>
+        <v>0.05566891186074486</v>
       </c>
       <c r="T15">
-        <v>0.02899761611141576</v>
+        <v>0.07837780258915818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H16">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I16">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J16">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N16">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O16">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P16">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q16">
-        <v>0.0319094284</v>
+        <v>0.01074851437111111</v>
       </c>
       <c r="R16">
-        <v>0.2871848556</v>
+        <v>0.09673662933999999</v>
       </c>
       <c r="S16">
-        <v>0.0002845790042428242</v>
+        <v>0.0002239566730425886</v>
       </c>
       <c r="T16">
-        <v>0.0004411000443897263</v>
+        <v>0.0003153148017724122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H17">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I17">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J17">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N17">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O17">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P17">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q17">
-        <v>10.388634523225</v>
+        <v>3.997578570796667</v>
       </c>
       <c r="R17">
-        <v>62.33180713935</v>
+        <v>23.98547142478</v>
       </c>
       <c r="S17">
-        <v>0.09264933332563226</v>
+        <v>0.08329378051986722</v>
       </c>
       <c r="T17">
-        <v>0.09573820610636387</v>
+        <v>0.07818108010711014</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H18">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I18">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J18">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N18">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O18">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P18">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q18">
-        <v>0.2202980141833334</v>
+        <v>0.01942281912222222</v>
       </c>
       <c r="R18">
-        <v>1.98268212765</v>
+        <v>0.1748053721</v>
       </c>
       <c r="S18">
-        <v>0.001964691712025921</v>
+        <v>0.0004046949933296873</v>
       </c>
       <c r="T18">
-        <v>0.003045290019524038</v>
+        <v>0.0005697812879001459</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.21845</v>
+        <v>0.2782306666666667</v>
       </c>
       <c r="H19">
-        <v>0.65535</v>
+        <v>0.834692</v>
       </c>
       <c r="I19">
-        <v>0.1189445434565028</v>
+        <v>0.1502439665363322</v>
       </c>
       <c r="J19">
-        <v>0.1338548501575274</v>
+        <v>0.167692883822896</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N19">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O19">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P19">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q19">
-        <v>0.0253406369</v>
+        <v>0.02558219687733333</v>
       </c>
       <c r="R19">
-        <v>0.2280657321</v>
+        <v>0.230239771896</v>
       </c>
       <c r="S19">
-        <v>0.0002259963144899508</v>
+        <v>0.0005330321478814576</v>
       </c>
       <c r="T19">
-        <v>0.0003502963425522828</v>
+        <v>0.0007504707216989396</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H20">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I20">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J20">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N20">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O20">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P20">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q20">
-        <v>1.273905732951</v>
+        <v>0.619740486396</v>
       </c>
       <c r="R20">
-        <v>5.095622931804</v>
+        <v>2.478961945584</v>
       </c>
       <c r="S20">
-        <v>0.01136111936691478</v>
+        <v>0.012912948961215</v>
       </c>
       <c r="T20">
-        <v>0.007826594813699682</v>
+        <v>0.008080221523182256</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H21">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I21">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J21">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>28.808021</v>
       </c>
       <c r="O21">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P21">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q21">
-        <v>4.6621028665035</v>
+        <v>3.409256437224</v>
       </c>
       <c r="R21">
-        <v>27.972617199021</v>
+        <v>20.455538623344</v>
       </c>
       <c r="S21">
-        <v>0.04157819985980012</v>
+        <v>0.07103546619259787</v>
       </c>
       <c r="T21">
-        <v>0.04296439191546626</v>
+        <v>0.06667519997516211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H22">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I22">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J22">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N22">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O22">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P22">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q22">
-        <v>0.070918029036</v>
+        <v>0.01371547788</v>
       </c>
       <c r="R22">
-        <v>0.425508174216</v>
+        <v>0.08229286728</v>
       </c>
       <c r="S22">
-        <v>0.0006324708118534825</v>
+        <v>0.000285776497954897</v>
       </c>
       <c r="T22">
-        <v>0.0006535570064888513</v>
+        <v>0.0002682350967850729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H23">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I23">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J23">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N23">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O23">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P23">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q23">
-        <v>23.08852028081025</v>
+        <v>5.10104918394</v>
       </c>
       <c r="R23">
-        <v>92.354081123241</v>
+        <v>20.40419673576</v>
       </c>
       <c r="S23">
-        <v>0.205911181754457</v>
+        <v>0.1062857586470081</v>
       </c>
       <c r="T23">
-        <v>0.1418507574082329</v>
+        <v>0.06650785015931034</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H24">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I24">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J24">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N24">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O24">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P24">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q24">
-        <v>0.4896076723965</v>
+        <v>0.0247841922</v>
       </c>
       <c r="R24">
-        <v>2.937646034379</v>
+        <v>0.1487051532</v>
       </c>
       <c r="S24">
-        <v>0.004366485733735138</v>
+        <v>0.0005164048758290202</v>
       </c>
       <c r="T24">
-        <v>0.004512061729225392</v>
+        <v>0.000484707149956546</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4855005</v>
+        <v>0.355032</v>
       </c>
       <c r="H25">
-        <v>0.971001</v>
+        <v>0.710064</v>
       </c>
       <c r="I25">
-        <v>0.2643517295509447</v>
+        <v>0.1917165227197353</v>
       </c>
       <c r="J25">
-        <v>0.1983263803430369</v>
+        <v>0.1426546317190303</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N25">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O25">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P25">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q25">
-        <v>0.05631902900100001</v>
+        <v>0.03264377227199999</v>
       </c>
       <c r="R25">
-        <v>0.337914174006</v>
+        <v>0.195862633632</v>
       </c>
       <c r="S25">
-        <v>0.0005022720241841535</v>
+        <v>0.0006801675451303582</v>
       </c>
       <c r="T25">
-        <v>0.0005190174699238714</v>
+        <v>0.0006384178146339439</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H26">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I26">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J26">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N26">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O26">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P26">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q26">
-        <v>0.5322165382679999</v>
+        <v>0.742323997395</v>
       </c>
       <c r="R26">
-        <v>3.193299229607999</v>
+        <v>4.45394398437</v>
       </c>
       <c r="S26">
-        <v>0.004746485916428083</v>
+        <v>0.01546710615404552</v>
       </c>
       <c r="T26">
-        <v>0.004904730888357357</v>
+        <v>0.01451771137901686</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H27">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I27">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J27">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>28.808021</v>
       </c>
       <c r="O27">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P27">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q27">
-        <v>1.947748710504666</v>
+        <v>4.083600994574445</v>
       </c>
       <c r="R27">
-        <v>17.529738394542</v>
+        <v>36.75240895117</v>
       </c>
       <c r="S27">
-        <v>0.01737067745628006</v>
+        <v>0.08508614876455323</v>
       </c>
       <c r="T27">
-        <v>0.02692470801713391</v>
+        <v>0.1197951450465205</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H28">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I28">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J28">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N28">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O28">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P28">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q28">
-        <v>0.029628368048</v>
+        <v>0.01642837379444444</v>
       </c>
       <c r="R28">
-        <v>0.266655312432</v>
+        <v>0.14785536415</v>
       </c>
       <c r="S28">
-        <v>0.0002642357415728495</v>
+        <v>0.0003423025556343456</v>
       </c>
       <c r="T28">
-        <v>0.000409567802260223</v>
+        <v>0.0004819372471009549</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H29">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I29">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J29">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N29">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O29">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P29">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q29">
-        <v>9.645998145496998</v>
+        <v>6.110027187591666</v>
       </c>
       <c r="R29">
-        <v>57.87598887298198</v>
+        <v>36.66016312555</v>
       </c>
       <c r="S29">
-        <v>0.08602625257849068</v>
+        <v>0.127308883245354</v>
       </c>
       <c r="T29">
-        <v>0.08889431584975145</v>
+        <v>0.1194944681011054</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H30">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I30">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J30">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N30">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O30">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P30">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q30">
-        <v>0.2045499080286667</v>
+        <v>0.02968645913888889</v>
       </c>
       <c r="R30">
-        <v>1.840949172258</v>
+        <v>0.26717813225</v>
       </c>
       <c r="S30">
-        <v>0.001824244809874413</v>
+        <v>0.0006185487960112414</v>
       </c>
       <c r="T30">
-        <v>0.002827596044038172</v>
+        <v>0.0008708719787231328</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.202834</v>
+        <v>0.4252566666666667</v>
       </c>
       <c r="H31">
-        <v>0.6085019999999999</v>
+        <v>1.27577</v>
       </c>
       <c r="I31">
-        <v>0.1104417373653298</v>
+        <v>0.2296376929311129</v>
       </c>
       <c r="J31">
-        <v>0.1242861738468844</v>
+        <v>0.2563071772518917</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N31">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O31">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P31">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q31">
-        <v>0.023529149668</v>
+        <v>0.03910064947333333</v>
       </c>
       <c r="R31">
-        <v>0.211762347012</v>
+        <v>0.35190584526</v>
       </c>
       <c r="S31">
-        <v>0.0002098408626837018</v>
+        <v>0.0008147034155146176</v>
       </c>
       <c r="T31">
-        <v>0.0003252552453433266</v>
+        <v>0.001147043499424765</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H32">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I32">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J32">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.623902</v>
+        <v>1.7455905</v>
       </c>
       <c r="N32">
-        <v>5.247803999999999</v>
+        <v>3.491181</v>
       </c>
       <c r="O32">
-        <v>0.04297728403825449</v>
+        <v>0.06735438749894324</v>
       </c>
       <c r="P32">
-        <v>0.03946320605540395</v>
+        <v>0.05664184489359518</v>
       </c>
       <c r="Q32">
-        <v>1.02907249855</v>
+        <v>0.280934171343</v>
       </c>
       <c r="R32">
-        <v>6.174434991299999</v>
+        <v>1.685605028058</v>
       </c>
       <c r="S32">
-        <v>0.009177614316997106</v>
+        <v>0.005853560797858507</v>
       </c>
       <c r="T32">
-        <v>0.009483590431862275</v>
+        <v>0.005494260229190341</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H33">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I33">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J33">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>28.808021</v>
       </c>
       <c r="O33">
-        <v>0.1572836309050415</v>
+        <v>0.3705234435972038</v>
       </c>
       <c r="P33">
-        <v>0.2166347807142577</v>
+        <v>0.4673889601179179</v>
       </c>
       <c r="Q33">
-        <v>3.766088589786111</v>
+        <v>1.545447898130889</v>
       </c>
       <c r="R33">
-        <v>33.894797308075</v>
+        <v>13.909031083178</v>
       </c>
       <c r="S33">
-        <v>0.0335872434735181</v>
+        <v>0.03220104264421021</v>
       </c>
       <c r="T33">
-        <v>0.05206053280886396</v>
+        <v>0.04533673964826807</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H34">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I34">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J34">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.146072</v>
+        <v>0.03863166666666667</v>
       </c>
       <c r="N34">
-        <v>0.438216</v>
+        <v>0.115895</v>
       </c>
       <c r="O34">
-        <v>0.002392535176251214</v>
+        <v>0.001490620077501955</v>
       </c>
       <c r="P34">
-        <v>0.003295360936646052</v>
+        <v>0.001880311165173966</v>
       </c>
       <c r="Q34">
-        <v>0.05728822113333334</v>
+        <v>0.006217354678888889</v>
       </c>
       <c r="R34">
-        <v>0.5155939902</v>
+        <v>0.05595619211</v>
       </c>
       <c r="S34">
-        <v>0.0005109156052750452</v>
+        <v>0.0001295451651208787</v>
       </c>
       <c r="T34">
-        <v>0.0007919238341769165</v>
+        <v>0.000182390225331203</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H35">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I35">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J35">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>47.5561205</v>
+        <v>14.3678575</v>
       </c>
       <c r="N35">
-        <v>95.112241</v>
+        <v>28.735715</v>
       </c>
       <c r="O35">
-        <v>0.7789288237464499</v>
+        <v>0.5543901857764452</v>
       </c>
       <c r="P35">
-        <v>0.7152389770986568</v>
+        <v>0.4662158484296736</v>
       </c>
       <c r="Q35">
-        <v>18.65111415909583</v>
+        <v>2.312353407478333</v>
       </c>
       <c r="R35">
-        <v>111.906684954575</v>
+        <v>13.87412044487</v>
       </c>
       <c r="S35">
-        <v>0.1663369029642264</v>
+        <v>0.04818033061661217</v>
       </c>
       <c r="T35">
-        <v>0.1718824747838484</v>
+        <v>0.04522294778811191</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H36">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I36">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J36">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.008459666666667</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N36">
-        <v>3.025379</v>
+        <v>0.209425</v>
       </c>
       <c r="O36">
-        <v>0.01651771199360982</v>
+        <v>0.002693585657110719</v>
       </c>
       <c r="P36">
-        <v>0.02275068864475349</v>
+        <v>0.003397766648833495</v>
       </c>
       <c r="Q36">
-        <v>0.3955094774361111</v>
+        <v>0.01123490662777778</v>
       </c>
       <c r="R36">
-        <v>3.559585296925</v>
+        <v>0.10111415965</v>
       </c>
       <c r="S36">
-        <v>0.003527286413484242</v>
+        <v>0.0002340911705029555</v>
       </c>
       <c r="T36">
-        <v>0.005467326016207362</v>
+        <v>0.0003295834413908036</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3921916666666667</v>
+        <v>0.1609393333333333</v>
       </c>
       <c r="H37">
-        <v>1.176575</v>
+        <v>0.482818</v>
       </c>
       <c r="I37">
-        <v>0.2135457026281145</v>
+        <v>0.08690689671775796</v>
       </c>
       <c r="J37">
-        <v>0.240314748339197</v>
+        <v>0.09700002250123757</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.116002</v>
+        <v>0.09194599999999999</v>
       </c>
       <c r="N37">
-        <v>0.348006</v>
+        <v>0.275838</v>
       </c>
       <c r="O37">
-        <v>0.001900014140393048</v>
+        <v>0.003547777392795065</v>
       </c>
       <c r="P37">
-        <v>0.002616986550282158</v>
+        <v>0.004475268744805699</v>
       </c>
       <c r="Q37">
-        <v>0.04549501771666667</v>
+        <v>0.01479772794266666</v>
       </c>
       <c r="R37">
-        <v>0.40945515945</v>
+        <v>0.133179551484</v>
       </c>
       <c r="S37">
-        <v>0.0004057398546135863</v>
+        <v>0.0003083263234532373</v>
       </c>
       <c r="T37">
-        <v>0.0006289004642381201</v>
+        <v>0.000434101168945238</v>
       </c>
     </row>
   </sheetData>
